--- a/regions/10/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
+++ b/regions/10/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -44,26 +44,6 @@
   </si>
   <si>
     <t>ქ. თბილისში</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>წყარო:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან -  სამუშაო ძალის გამოკვლევა. </t>
-    </r>
   </si>
   <si>
     <t>-</t>
@@ -115,6 +95,26 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> პროცენტი</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>წყარო:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან  -  სამუშაო ძალის გამოკვლევა. </t>
     </r>
   </si>
 </sst>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -400,14 +400,59 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -733,15 +778,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="2" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -788,56 +836,56 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3"/>
+      <c r="A3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -859,7 +907,9 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="5"/>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -922,6 +972,12 @@
       <c r="T6" s="12">
         <v>2021</v>
       </c>
+      <c r="U6" s="12">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="12">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="13" t="s">
@@ -984,10 +1040,16 @@
       <c r="T7" s="14">
         <v>920.07423318525366</v>
       </c>
+      <c r="U7" s="35">
+        <v>916.50927054050476</v>
+      </c>
+      <c r="V7" s="49">
+        <v>949.77446549085403</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="17">
         <v>463.35545646236358</v>
@@ -1045,6 +1107,12 @@
       </c>
       <c r="T8" s="17">
         <v>498.64942922510306</v>
+      </c>
+      <c r="U8" s="36">
+        <v>490.2982600546805</v>
+      </c>
+      <c r="V8" s="50">
+        <v>521.46476357384233</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
@@ -1108,6 +1176,12 @@
       <c r="T9" s="17">
         <v>379.88545923069711</v>
       </c>
+      <c r="U9" s="36">
+        <v>394.65106599416362</v>
+      </c>
+      <c r="V9" s="50">
+        <v>429.96982884036504</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="21" t="s">
@@ -1135,40 +1209,46 @@
         <v>264.85611887505769</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S10" s="17">
         <v>339.65965649571507</v>
       </c>
       <c r="T10" s="17">
         <v>327.39919893328846</v>
+      </c>
+      <c r="U10" s="36">
+        <v>332.91229681239304</v>
+      </c>
+      <c r="V10" s="50">
+        <v>355.53433436689176</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
@@ -1197,40 +1277,46 @@
         <v>71.073679647642052</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S11" s="17">
         <v>53.351042454120659</v>
       </c>
       <c r="T11" s="17">
         <v>52.396223442651788</v>
+      </c>
+      <c r="U11" s="36">
+        <v>61.738769181769335</v>
+      </c>
+      <c r="V11" s="50">
+        <v>74.435494473473071</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
@@ -1259,40 +1345,46 @@
         <v>0.95877419739809977</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S12" s="17">
         <v>0.24263456881670528</v>
       </c>
       <c r="T12" s="17">
         <v>9.0036854756790005E-2</v>
+      </c>
+      <c r="U12" s="36">
+        <v>0</v>
+      </c>
+      <c r="V12" s="50">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
@@ -1356,6 +1448,12 @@
       <c r="T13" s="17">
         <v>118.763969994406</v>
       </c>
+      <c r="U13" s="36">
+        <v>95.647194060515872</v>
+      </c>
+      <c r="V13" s="50">
+        <v>91.494934733476853</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="22" t="s">
@@ -1418,10 +1516,16 @@
       <c r="T14" s="17">
         <v>421.42480396015054</v>
       </c>
+      <c r="U14" s="36">
+        <v>426.21101048582466</v>
+      </c>
+      <c r="V14" s="50">
+        <v>428.30970191701385</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="24">
         <v>26.079053397963332</v>
@@ -1480,10 +1584,16 @@
       <c r="T15" s="24">
         <v>23.817127431382843</v>
       </c>
+      <c r="U15" s="37">
+        <v>19.507961143865536</v>
+      </c>
+      <c r="V15" s="51">
+        <v>17.545755940711931</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="24">
         <v>55.413577767068475</v>
@@ -1542,10 +1652,16 @@
       <c r="T16" s="24">
         <v>54.196651883055381</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="37">
+        <v>53.496268484609068</v>
+      </c>
+      <c r="V16" s="51">
+        <v>54.904062229588746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="29">
         <v>40.962241231472618</v>
@@ -1604,60 +1720,110 @@
       <c r="T17" s="29">
         <v>41.288566240525135</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="U17" s="38">
+        <v>43.060237215213434</v>
+      </c>
+      <c r="V17" s="52">
+        <v>45.270729469248458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-    </row>
-    <row r="23" spans="1:20">
+    <row r="19" spans="1:26" s="43" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="41"/>
+      <c r="Z19" s="44"/>
+    </row>
+    <row r="20" spans="1:26" s="48" customFormat="1" ht="45" customHeight="1">
+      <c r="A20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="46"/>
+      <c r="Z20"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -1674,7 +1840,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:26">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1691,64 +1857,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
